--- a/SP_Sklad/TempLate/ActServicesProvided_In.xlsx
+++ b/SP_Sklad/TempLate/ActServicesProvided_In.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Накладна" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Накладна!$A$13:$L$14</definedName>
+    <definedName name="range1">Накладна!$A$13:$O$14</definedName>
     <definedName name="range2">#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -186,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -260,21 +260,6 @@
         <color indexed="55"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
       <top style="thin">
         <color indexed="55"/>
       </top>
@@ -309,11 +294,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -347,47 +380,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,9 +411,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -424,14 +424,65 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,7 +852,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A2:M21"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -809,55 +860,64 @@
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:16" ht="16.5" customHeight="1">
+      <c r="B2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26" t="e">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43" t="e">
         <f>WayBillList_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="20" t="e">
+      <c r="K2" s="37" t="e">
         <f>WayBillList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" ht="12.75" customHeight="1">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:16" ht="12.75" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -869,278 +929,319 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4"/>
-    </row>
-    <row r="5" spans="2:13" ht="13.5" customHeight="1">
-      <c r="C5" s="17" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="2:16" ht="13.5" customHeight="1">
+      <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="2:13" ht="13.5" customHeight="1">
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="2:16" ht="13.5" customHeight="1">
       <c r="B6" s="12"/>
-      <c r="C6" s="12" t="e">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="e">
         <f>WayBillList_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="e">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="e">
         <f>WayBillList_EntKaFullName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="2:13" ht="13.5" customHeight="1">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="2:16" ht="13.5" customHeight="1">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="2:13" ht="13.5" customHeight="1">
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="2:16" ht="13.5" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="2:13" ht="13.5" customHeight="1">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="2:16" ht="13.5" customHeight="1">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="2:13" ht="18.75" customHeight="1">
-      <c r="B10" s="22" t="e">
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="2:16" ht="18.75" customHeight="1">
+      <c r="B10" s="39" t="e">
         <f>"Підстава: "&amp;WayBillList_Reason</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="2:13" ht="6" customHeight="1">
-      <c r="C11" s="16"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="2:16" ht="6" customHeight="1">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:13" ht="31.5" customHeight="1">
-      <c r="B12" s="28" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" ht="31.5" customHeight="1">
+      <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="52"/>
+      <c r="E12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="I12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="J12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="K12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28" t="s">
+      <c r="L12" s="19"/>
+      <c r="M12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="30" t="s">
+      <c r="N12" s="19"/>
+      <c r="O12" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="30" customHeight="1">
-      <c r="B13" s="31" t="e">
+    <row r="13" spans="2:16" ht="30" customHeight="1">
+      <c r="B13" s="21" t="e">
         <f>range1_NUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="45" t="e">
+      <c r="C13" s="48" t="e">
         <f>range1_MATNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="46" t="e">
+      <c r="D13" s="50"/>
+      <c r="E13" s="48" t="e">
         <f>range1_NOTES</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="31" t="e">
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="21" t="e">
         <f>range1_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F13" s="32" t="e">
+      <c r="I13" s="22" t="e">
         <f>range1_AMOUNT</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="32" t="e">
+      <c r="J13" s="22" t="e">
         <f>range1_PRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="H13" s="33" t="e">
+      <c r="K13" s="23" t="e">
         <f>range1_DISCOUNTPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="I13" s="33" t="e">
+      <c r="L13" s="23" t="e">
         <f>range1_NDS</f>
         <v>#NAME?</v>
       </c>
-      <c r="J13" s="34" t="e">
-        <f>ROUND(L13*I13/100,2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K13" s="34" t="e">
+      <c r="M13" s="24" t="e">
+        <f>ROUND(O13*L13/100,2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N13" s="24" t="e">
         <f>range1_SVCTOPRICE</f>
         <v>#NAME?</v>
       </c>
-      <c r="L13" s="34" t="e">
-        <f>IF(K13&lt;&gt;1,ROUND(F13*G13,2),0)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38" t="s">
+      <c r="O13" s="24" t="e">
+        <f>IF(N13&lt;&gt;1,ROUND(I13*J13,2),0)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39" t="s">
+      <c r="J14" s="40"/>
+      <c r="K14" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39" t="s">
+      <c r="L14" s="28"/>
+      <c r="M14" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39" t="s">
+      <c r="N14" s="28"/>
+      <c r="O14" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="12.75" customHeight="1">
-      <c r="B15" s="40"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="38" t="e">
+    <row r="15" spans="2:16" ht="12.75" customHeight="1">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="40" t="e">
         <f>"Всього ПДВ "&amp;WayBillList_Nds&amp;"%"</f>
         <v>#NAME?</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42" t="str">
-        <f>J14</f>
+      <c r="J15" s="40"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31" t="str">
+        <f>M14</f>
         <v>sum</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="12.75" customHeight="1">
-      <c r="E16" s="40"/>
-      <c r="F16" s="38" t="s">
+    <row r="16" spans="2:16" ht="12.75" customHeight="1">
+      <c r="H16" s="29"/>
+      <c r="I16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="43" t="e">
-        <f>L14+L15</f>
+      <c r="J16" s="40"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="32" t="e">
+        <f>O14+O15</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+    <row r="17" spans="1:15" ht="12.75" customHeight="1">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" customHeight="1">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="12.75" customHeight="1">
       <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="12.75" customHeight="1">
       <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="12.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1153,42 +1254,49 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" ht="12.75" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F15:G15"/>
+  <mergeCells count="13">
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>